--- a/data/trans_bre/P2C_R1-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R1-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,75%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>135,06%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-76,73%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,62%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-0,98; 0,92</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-0,47; 1,92</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-3,1; -0,09</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-9,25; 10,0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 60,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,05; 49,57</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,77%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,1%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,49%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,41%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-0,92; 1,64</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-0,85; 0,94</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-0,7; 1,24</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-6,2; 7,16</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-82,64; —</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,27; 69,51</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>151,94%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,9%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,2; 1,83</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-1,55; 1,49</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-0,4; 2,16</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>-25,45; -2,1</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,45; 441,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,15; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,29; -6,12</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,51</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,72%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,47%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,13%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,74%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,23; 1,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,98; 1,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,17; 1,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,15; 11,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,07; 346,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,79; 541,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,29; 315,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,27; 136,77</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,21</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,07%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,53%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,32%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,37; 0,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,19; 1,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,6; 0,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,26; 2,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,44; 216,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,16; 185,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,68; 98,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,36; 13,75</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P2C_R1-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R1-Habitat-trans_bre.xlsx
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 0,92</t>
+          <t>-0,99; 0,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 1,92</t>
+          <t>-0,37; 1,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,1; -0,09</t>
+          <t>-3,11; -0,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 10,0</t>
+          <t>-10,44; 10,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 60,73</t>
+          <t>-100,0; 55,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-28,05; 49,57</t>
+          <t>-31,11; 49,32</t>
         </is>
       </c>
     </row>
@@ -768,27 +768,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 1,64</t>
+          <t>-0,95; 1,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 0,94</t>
+          <t>-0,85; 0,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 1,24</t>
+          <t>-0,74; 1,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 7,16</t>
+          <t>-7,05; 6,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-82,64; —</t>
+          <t>-81,9; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-32,27; 69,51</t>
+          <t>-35,2; 64,36</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,83</t>
+          <t>0,2; 1,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 1,49</t>
+          <t>-1,67; 1,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 2,16</t>
+          <t>-0,35; 2,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-25,45; -2,1</t>
+          <t>-24,93; -2,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,17 +893,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-88,45; 441,35</t>
+          <t>-91,81; 409,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-83,15; —</t>
+          <t>-92,2; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-94,29; -6,12</t>
+          <t>-95,26; -15,63</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 1,0</t>
+          <t>-1,19; 0,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 1,98</t>
+          <t>-0,73; 2,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 1,52</t>
+          <t>-1,21; 1,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 11,95</t>
+          <t>-2,93; 10,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-89,07; 346,07</t>
+          <t>-87,63; 308,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-55,79; 541,49</t>
+          <t>-55,35; 389,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-70,29; 315,16</t>
+          <t>-68,88; 348,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-14,27; 136,77</t>
+          <t>-17,32; 109,9</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 0,72</t>
+          <t>-0,33; 0,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 1,0</t>
+          <t>-0,22; 0,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 0,61</t>
+          <t>-0,63; 0,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,26; 2,23</t>
+          <t>-11,92; 1,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-45,44; 216,68</t>
+          <t>-43,24; 243,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-20,16; 185,9</t>
+          <t>-28,56; 187,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-47,68; 98,53</t>
+          <t>-50,52; 101,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-59,36; 13,75</t>
+          <t>-63,94; 10,82</t>
         </is>
       </c>
     </row>
